--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3792.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3792.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.068991642008398</v>
+        <v>1.098109722137451</v>
       </c>
       <c r="B1">
-        <v>2.317041754373724</v>
+        <v>2.928167104721069</v>
       </c>
       <c r="C1">
-        <v>2.449291624891214</v>
+        <v>4.562941074371338</v>
       </c>
       <c r="D1">
-        <v>3.234200793416134</v>
+        <v>2.621547222137451</v>
       </c>
       <c r="E1">
-        <v>2.868544514312099</v>
+        <v>2.123500347137451</v>
       </c>
     </row>
   </sheetData>
